--- a/premise/data/additional_inventories/lci-geothermal.xlsx
+++ b/premise/data/additional_inventories/lci-geothermal.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nolsoe_j\Documents\GitHub\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F102E5-A639-4821-8602-8A8CD79A05B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25812" windowHeight="14028"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -339,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
@@ -716,26 +730,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A706" workbookViewId="0">
-      <selection activeCell="B725" sqref="B725"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.6640625" customWidth="1"/>
+    <col min="1" max="1" width="79.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -743,10 +757,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +768,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -762,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -770,7 +784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -778,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -786,7 +800,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -794,7 +808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -802,7 +816,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -810,12 +824,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -853,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
@@ -876,7 +890,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -898,7 +912,7 @@
       <c r="Q14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -918,7 +932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -941,7 +955,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
@@ -968,10 +982,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
     </row>
-    <row r="19" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,7 +993,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -987,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -995,7 +1009,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1003,7 +1017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1011,7 +1025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1027,7 +1041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1035,12 +1049,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1078,7 +1092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -1101,7 +1115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -1124,7 +1138,7 @@
       <c r="Q30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1146,7 +1160,7 @@
       <c r="Q31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
@@ -1169,7 +1183,7 @@
       <c r="Q32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -1194,7 +1208,7 @@
       <c r="Q33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -1217,7 +1231,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>53</v>
       </c>
@@ -1240,7 +1254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>63</v>
       </c>
@@ -1263,10 +1277,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1288,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1282,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1290,7 +1304,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1298,7 +1312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1306,7 +1320,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1314,7 +1328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1322,7 +1336,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -1330,12 +1344,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1373,7 +1387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>63</v>
       </c>
@@ -1396,7 +1410,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -1418,7 +1432,7 @@
       <c r="Q49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -1438,7 +1452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>67</v>
       </c>
@@ -1461,7 +1475,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1483,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -1485,7 +1499,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -1493,7 +1507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1501,7 +1515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1509,7 +1523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -1517,7 +1531,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -1525,12 +1539,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -1568,7 +1582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>70</v>
       </c>
@@ -1591,7 +1605,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>46</v>
       </c>
@@ -1613,7 +1627,7 @@
       <c r="Q64" s="3"/>
       <c r="S64" s="3"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -1633,7 +1647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -1653,7 +1667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>73</v>
       </c>
@@ -1673,7 +1687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -1696,7 +1710,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -1719,7 +1733,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -1742,7 +1756,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -1765,7 +1779,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -1788,7 +1802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -1811,7 +1825,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -1834,7 +1848,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>87</v>
       </c>
@@ -1857,7 +1871,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -1880,7 +1894,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>90</v>
       </c>
@@ -1903,7 +1917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>91</v>
       </c>
@@ -1928,7 +1942,7 @@
       <c r="Q78" s="3"/>
       <c r="S78" s="3"/>
     </row>
-    <row r="79" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>93</v>
       </c>
@@ -1953,7 +1967,7 @@
       <c r="Q79" s="4"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>53</v>
       </c>
@@ -1978,7 +1992,7 @@
       <c r="Q80" s="3"/>
       <c r="S80" s="3"/>
     </row>
-    <row r="81" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -2003,7 +2017,7 @@
       <c r="Q81" s="3"/>
       <c r="S81" s="3"/>
     </row>
-    <row r="83" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +2025,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -2019,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -2027,7 +2041,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -2035,7 +2049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2043,7 +2057,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -2051,7 +2065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -2059,7 +2073,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -2067,12 +2081,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -2110,7 +2124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>56</v>
       </c>
@@ -2133,7 +2147,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>59</v>
       </c>
@@ -2155,7 +2169,7 @@
       <c r="Q94" s="3"/>
       <c r="S94" s="3"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>61</v>
       </c>
@@ -2175,7 +2189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>99</v>
       </c>
@@ -2198,7 +2212,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>42</v>
       </c>
@@ -2225,10 +2239,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
     </row>
-    <row r="99" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -2236,7 +2250,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -2244,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -2252,7 +2266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -2260,7 +2274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2268,7 +2282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -2284,7 +2298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>39</v>
       </c>
@@ -2292,12 +2306,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -2335,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>42</v>
       </c>
@@ -2358,7 +2372,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>46</v>
       </c>
@@ -2381,7 +2395,7 @@
       <c r="Q110" s="3"/>
       <c r="S110" s="3"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>47</v>
       </c>
@@ -2403,7 +2417,7 @@
       <c r="Q111" s="4"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>49</v>
       </c>
@@ -2426,7 +2440,7 @@
       <c r="Q112" s="3"/>
       <c r="S112" s="3"/>
     </row>
-    <row r="113" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>70</v>
       </c>
@@ -2451,7 +2465,7 @@
       <c r="Q113" s="3"/>
       <c r="S113" s="3"/>
     </row>
-    <row r="114" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>52</v>
       </c>
@@ -2474,7 +2488,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>53</v>
       </c>
@@ -2497,7 +2511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>63</v>
       </c>
@@ -2520,10 +2534,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -2531,7 +2545,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -2539,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -2547,7 +2561,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -2555,7 +2569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -2563,7 +2577,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -2571,7 +2585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -2579,7 +2593,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -2587,12 +2601,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -2630,7 +2644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>63</v>
       </c>
@@ -2653,7 +2667,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>64</v>
       </c>
@@ -2675,7 +2689,7 @@
       <c r="Q129" s="3"/>
       <c r="S129" s="3"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>66</v>
       </c>
@@ -2695,7 +2709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>67</v>
       </c>
@@ -2718,7 +2732,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
@@ -2726,7 +2740,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -2734,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -2742,7 +2756,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -2750,7 +2764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -2758,7 +2772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -2766,7 +2780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -2774,7 +2788,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>39</v>
       </c>
@@ -2782,12 +2796,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -2825,7 +2839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>70</v>
       </c>
@@ -2848,7 +2862,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>46</v>
       </c>
@@ -2870,7 +2884,7 @@
       <c r="Q144" s="3"/>
       <c r="S144" s="3"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>47</v>
       </c>
@@ -2890,7 +2904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>49</v>
       </c>
@@ -2910,7 +2924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>73</v>
       </c>
@@ -2930,7 +2944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>74</v>
       </c>
@@ -2953,7 +2967,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>76</v>
       </c>
@@ -2976,7 +2990,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>78</v>
       </c>
@@ -2999,7 +3013,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>80</v>
       </c>
@@ -3022,7 +3036,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -3045,7 +3059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>82</v>
       </c>
@@ -3068,7 +3082,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>84</v>
       </c>
@@ -3091,7 +3105,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>87</v>
       </c>
@@ -3114,7 +3128,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>88</v>
       </c>
@@ -3137,7 +3151,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>90</v>
       </c>
@@ -3160,7 +3174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>91</v>
       </c>
@@ -3185,7 +3199,7 @@
       <c r="Q158" s="3"/>
       <c r="S158" s="3"/>
     </row>
-    <row r="159" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>93</v>
       </c>
@@ -3210,7 +3224,7 @@
       <c r="Q159" s="4"/>
       <c r="S159" s="4"/>
     </row>
-    <row r="160" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>53</v>
       </c>
@@ -3235,7 +3249,7 @@
       <c r="Q160" s="3"/>
       <c r="S160" s="3"/>
     </row>
-    <row r="161" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>95</v>
       </c>
@@ -3260,7 +3274,7 @@
       <c r="Q161" s="3"/>
       <c r="S161" s="3"/>
     </row>
-    <row r="163" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
@@ -3268,7 +3282,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -3276,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -3284,7 +3298,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>3</v>
       </c>
@@ -3292,7 +3306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -3300,7 +3314,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -3308,7 +3322,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -3316,7 +3330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>39</v>
       </c>
@@ -3324,12 +3338,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -3367,7 +3381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>56</v>
       </c>
@@ -3390,7 +3404,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>59</v>
       </c>
@@ -3412,7 +3426,7 @@
       <c r="Q174" s="3"/>
       <c r="S174" s="3"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>61</v>
       </c>
@@ -3432,7 +3446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>99</v>
       </c>
@@ -3455,7 +3469,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>42</v>
       </c>
@@ -3482,10 +3496,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
     </row>
-    <row r="179" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
@@ -3493,7 +3507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1</v>
       </c>
@@ -3501,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -3509,7 +3523,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>3</v>
       </c>
@@ -3517,7 +3531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -3525,7 +3539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -3533,7 +3547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -3541,7 +3555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>39</v>
       </c>
@@ -3549,12 +3563,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -3592,7 +3606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>42</v>
       </c>
@@ -3615,7 +3629,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>46</v>
       </c>
@@ -3638,7 +3652,7 @@
       <c r="Q190" s="3"/>
       <c r="S190" s="3"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>47</v>
       </c>
@@ -3660,7 +3674,7 @@
       <c r="Q191" s="4"/>
       <c r="S191" s="4"/>
     </row>
-    <row r="192" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>49</v>
       </c>
@@ -3683,7 +3697,7 @@
       <c r="Q192" s="3"/>
       <c r="S192" s="3"/>
     </row>
-    <row r="193" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>70</v>
       </c>
@@ -3708,7 +3722,7 @@
       <c r="Q193" s="3"/>
       <c r="S193" s="3"/>
     </row>
-    <row r="194" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>52</v>
       </c>
@@ -3731,7 +3745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>53</v>
       </c>
@@ -3754,7 +3768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>63</v>
       </c>
@@ -3777,10 +3791,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>0</v>
       </c>
@@ -3788,7 +3802,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1</v>
       </c>
@@ -3796,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>2</v>
       </c>
@@ -3804,7 +3818,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>3</v>
       </c>
@@ -3812,7 +3826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -3820,7 +3834,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -3828,7 +3842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>9</v>
       </c>
@@ -3836,7 +3850,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>39</v>
       </c>
@@ -3844,12 +3858,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>11</v>
       </c>
@@ -3887,7 +3901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>63</v>
       </c>
@@ -3910,7 +3924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>64</v>
       </c>
@@ -3932,7 +3946,7 @@
       <c r="Q209" s="3"/>
       <c r="S209" s="3"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>66</v>
       </c>
@@ -3952,7 +3966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>67</v>
       </c>
@@ -3975,7 +3989,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>0</v>
       </c>
@@ -3983,7 +3997,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -3991,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -3999,7 +4013,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>3</v>
       </c>
@@ -4007,7 +4021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -4015,7 +4029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -4023,7 +4037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>9</v>
       </c>
@@ -4031,7 +4045,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>39</v>
       </c>
@@ -4039,12 +4053,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -4082,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>70</v>
       </c>
@@ -4105,7 +4119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>46</v>
       </c>
@@ -4127,7 +4141,7 @@
       <c r="Q224" s="3"/>
       <c r="S224" s="3"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>47</v>
       </c>
@@ -4147,7 +4161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>49</v>
       </c>
@@ -4167,7 +4181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>73</v>
       </c>
@@ -4187,7 +4201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>74</v>
       </c>
@@ -4210,7 +4224,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>76</v>
       </c>
@@ -4233,7 +4247,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>78</v>
       </c>
@@ -4256,7 +4270,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>80</v>
       </c>
@@ -4279,7 +4293,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>24</v>
       </c>
@@ -4302,7 +4316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>82</v>
       </c>
@@ -4325,7 +4339,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>84</v>
       </c>
@@ -4348,7 +4362,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>87</v>
       </c>
@@ -4371,7 +4385,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>88</v>
       </c>
@@ -4394,7 +4408,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>90</v>
       </c>
@@ -4417,7 +4431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>91</v>
       </c>
@@ -4442,7 +4456,7 @@
       <c r="Q238" s="3"/>
       <c r="S238" s="3"/>
     </row>
-    <row r="239" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>93</v>
       </c>
@@ -4467,7 +4481,7 @@
       <c r="Q239" s="4"/>
       <c r="S239" s="4"/>
     </row>
-    <row r="240" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>53</v>
       </c>
@@ -4492,7 +4506,7 @@
       <c r="Q240" s="3"/>
       <c r="S240" s="3"/>
     </row>
-    <row r="241" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>95</v>
       </c>
@@ -4517,7 +4531,7 @@
       <c r="Q241" s="3"/>
       <c r="S241" s="3"/>
     </row>
-    <row r="243" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>0</v>
       </c>
@@ -4525,7 +4539,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -4533,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>2</v>
       </c>
@@ -4541,7 +4555,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>3</v>
       </c>
@@ -4549,7 +4563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -4557,7 +4571,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -4565,7 +4579,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -4573,7 +4587,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>39</v>
       </c>
@@ -4581,12 +4595,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>11</v>
       </c>
@@ -4624,7 +4638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>56</v>
       </c>
@@ -4647,7 +4661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>59</v>
       </c>
@@ -4669,7 +4683,7 @@
       <c r="Q254" s="3"/>
       <c r="S254" s="3"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>61</v>
       </c>
@@ -4689,7 +4703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>99</v>
       </c>
@@ -4712,7 +4726,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>42</v>
       </c>
@@ -4739,10 +4753,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="5"/>
     </row>
-    <row r="259" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>0</v>
       </c>
@@ -4750,7 +4764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -4758,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>2</v>
       </c>
@@ -4766,7 +4780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>3</v>
       </c>
@@ -4774,7 +4788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -4782,7 +4796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -4790,7 +4804,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -4798,7 +4812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>39</v>
       </c>
@@ -4806,12 +4820,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>11</v>
       </c>
@@ -4849,7 +4863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>42</v>
       </c>
@@ -4872,7 +4886,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>46</v>
       </c>
@@ -4895,7 +4909,7 @@
       <c r="Q270" s="3"/>
       <c r="S270" s="3"/>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>47</v>
       </c>
@@ -4917,7 +4931,7 @@
       <c r="Q271" s="4"/>
       <c r="S271" s="4"/>
     </row>
-    <row r="272" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>49</v>
       </c>
@@ -4940,7 +4954,7 @@
       <c r="Q272" s="3"/>
       <c r="S272" s="3"/>
     </row>
-    <row r="273" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>70</v>
       </c>
@@ -4965,7 +4979,7 @@
       <c r="Q273" s="3"/>
       <c r="S273" s="3"/>
     </row>
-    <row r="274" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>52</v>
       </c>
@@ -4988,7 +5002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>53</v>
       </c>
@@ -5011,7 +5025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>63</v>
       </c>
@@ -5034,10 +5048,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B277" s="2"/>
     </row>
-    <row r="278" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>0</v>
       </c>
@@ -5045,7 +5059,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1</v>
       </c>
@@ -5053,7 +5067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>2</v>
       </c>
@@ -5061,7 +5075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>3</v>
       </c>
@@ -5069,7 +5083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -5077,7 +5091,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -5085,7 +5099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>9</v>
       </c>
@@ -5093,7 +5107,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>39</v>
       </c>
@@ -5101,12 +5115,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -5144,7 +5158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>63</v>
       </c>
@@ -5167,7 +5181,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>64</v>
       </c>
@@ -5189,7 +5203,7 @@
       <c r="Q289" s="3"/>
       <c r="S289" s="3"/>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>66</v>
       </c>
@@ -5209,7 +5223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>67</v>
       </c>
@@ -5232,7 +5246,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>0</v>
       </c>
@@ -5240,7 +5254,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1</v>
       </c>
@@ -5248,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>2</v>
       </c>
@@ -5256,7 +5270,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>3</v>
       </c>
@@ -5264,7 +5278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>5</v>
       </c>
@@ -5272,7 +5286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -5280,7 +5294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>9</v>
       </c>
@@ -5288,7 +5302,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>39</v>
       </c>
@@ -5296,12 +5310,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -5339,7 +5353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>70</v>
       </c>
@@ -5362,7 +5376,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>46</v>
       </c>
@@ -5384,7 +5398,7 @@
       <c r="Q304" s="3"/>
       <c r="S304" s="3"/>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>47</v>
       </c>
@@ -5404,7 +5418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>49</v>
       </c>
@@ -5424,7 +5438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>73</v>
       </c>
@@ -5444,7 +5458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>74</v>
       </c>
@@ -5467,7 +5481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>76</v>
       </c>
@@ -5490,7 +5504,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>78</v>
       </c>
@@ -5513,7 +5527,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>80</v>
       </c>
@@ -5536,7 +5550,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>24</v>
       </c>
@@ -5559,7 +5573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>82</v>
       </c>
@@ -5582,7 +5596,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>84</v>
       </c>
@@ -5605,7 +5619,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>87</v>
       </c>
@@ -5628,7 +5642,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>88</v>
       </c>
@@ -5651,7 +5665,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>90</v>
       </c>
@@ -5674,7 +5688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>91</v>
       </c>
@@ -5699,7 +5713,7 @@
       <c r="Q318" s="3"/>
       <c r="S318" s="3"/>
     </row>
-    <row r="319" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>93</v>
       </c>
@@ -5724,7 +5738,7 @@
       <c r="Q319" s="4"/>
       <c r="S319" s="4"/>
     </row>
-    <row r="320" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>53</v>
       </c>
@@ -5749,7 +5763,7 @@
       <c r="Q320" s="3"/>
       <c r="S320" s="3"/>
     </row>
-    <row r="321" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>95</v>
       </c>
@@ -5774,7 +5788,7 @@
       <c r="Q321" s="3"/>
       <c r="S321" s="3"/>
     </row>
-    <row r="323" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>0</v>
       </c>
@@ -5782,7 +5796,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1</v>
       </c>
@@ -5790,7 +5804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>2</v>
       </c>
@@ -5798,7 +5812,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>3</v>
       </c>
@@ -5806,7 +5820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>5</v>
       </c>
@@ -5814,7 +5828,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -5822,7 +5836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -5830,7 +5844,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>39</v>
       </c>
@@ -5838,12 +5852,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>11</v>
       </c>
@@ -5881,7 +5895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>56</v>
       </c>
@@ -5904,7 +5918,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>59</v>
       </c>
@@ -5926,7 +5940,7 @@
       <c r="Q334" s="3"/>
       <c r="S334" s="3"/>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>61</v>
       </c>
@@ -5946,7 +5960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>99</v>
       </c>
@@ -5969,7 +5983,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>42</v>
       </c>
@@ -5996,10 +6010,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="5"/>
     </row>
-    <row r="339" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>0</v>
       </c>
@@ -6007,7 +6021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1</v>
       </c>
@@ -6015,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>2</v>
       </c>
@@ -6023,7 +6037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>3</v>
       </c>
@@ -6031,7 +6045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>5</v>
       </c>
@@ -6039,7 +6053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -6047,7 +6061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>9</v>
       </c>
@@ -6055,7 +6069,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>39</v>
       </c>
@@ -6063,12 +6077,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>11</v>
       </c>
@@ -6106,7 +6120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>42</v>
       </c>
@@ -6129,7 +6143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>46</v>
       </c>
@@ -6152,7 +6166,7 @@
       <c r="Q350" s="3"/>
       <c r="S350" s="3"/>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>47</v>
       </c>
@@ -6174,7 +6188,7 @@
       <c r="Q351" s="4"/>
       <c r="S351" s="4"/>
     </row>
-    <row r="352" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>49</v>
       </c>
@@ -6197,7 +6211,7 @@
       <c r="Q352" s="3"/>
       <c r="S352" s="3"/>
     </row>
-    <row r="353" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>70</v>
       </c>
@@ -6222,7 +6236,7 @@
       <c r="Q353" s="3"/>
       <c r="S353" s="3"/>
     </row>
-    <row r="354" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>52</v>
       </c>
@@ -6245,7 +6259,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>53</v>
       </c>
@@ -6268,7 +6282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>63</v>
       </c>
@@ -6291,10 +6305,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B357" s="2"/>
     </row>
-    <row r="358" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>0</v>
       </c>
@@ -6302,7 +6316,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1</v>
       </c>
@@ -6310,7 +6324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>2</v>
       </c>
@@ -6318,7 +6332,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>3</v>
       </c>
@@ -6326,7 +6340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>5</v>
       </c>
@@ -6334,7 +6348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -6342,7 +6356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>9</v>
       </c>
@@ -6350,7 +6364,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>39</v>
       </c>
@@ -6358,12 +6372,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>11</v>
       </c>
@@ -6401,7 +6415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>63</v>
       </c>
@@ -6424,7 +6438,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>64</v>
       </c>
@@ -6446,7 +6460,7 @@
       <c r="Q369" s="3"/>
       <c r="S369" s="3"/>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>66</v>
       </c>
@@ -6466,7 +6480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>67</v>
       </c>
@@ -6489,7 +6503,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>0</v>
       </c>
@@ -6497,7 +6511,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1</v>
       </c>
@@ -6505,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>2</v>
       </c>
@@ -6513,7 +6527,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>3</v>
       </c>
@@ -6521,7 +6535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -6529,7 +6543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>7</v>
       </c>
@@ -6537,7 +6551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>9</v>
       </c>
@@ -6545,7 +6559,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>39</v>
       </c>
@@ -6553,12 +6567,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>11</v>
       </c>
@@ -6596,7 +6610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>70</v>
       </c>
@@ -6619,7 +6633,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>46</v>
       </c>
@@ -6641,7 +6655,7 @@
       <c r="Q384" s="3"/>
       <c r="S384" s="3"/>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>47</v>
       </c>
@@ -6661,7 +6675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>49</v>
       </c>
@@ -6681,7 +6695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>73</v>
       </c>
@@ -6701,7 +6715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>74</v>
       </c>
@@ -6724,7 +6738,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>76</v>
       </c>
@@ -6747,7 +6761,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>78</v>
       </c>
@@ -6770,7 +6784,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>80</v>
       </c>
@@ -6793,7 +6807,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>24</v>
       </c>
@@ -6816,7 +6830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>82</v>
       </c>
@@ -6839,7 +6853,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>84</v>
       </c>
@@ -6862,7 +6876,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>87</v>
       </c>
@@ -6885,7 +6899,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>88</v>
       </c>
@@ -6908,7 +6922,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>90</v>
       </c>
@@ -6931,7 +6945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>91</v>
       </c>
@@ -6956,7 +6970,7 @@
       <c r="Q398" s="3"/>
       <c r="S398" s="3"/>
     </row>
-    <row r="399" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>93</v>
       </c>
@@ -6981,7 +6995,7 @@
       <c r="Q399" s="4"/>
       <c r="S399" s="4"/>
     </row>
-    <row r="400" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>53</v>
       </c>
@@ -7006,7 +7020,7 @@
       <c r="Q400" s="3"/>
       <c r="S400" s="3"/>
     </row>
-    <row r="401" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>95</v>
       </c>
@@ -7031,7 +7045,7 @@
       <c r="Q401" s="3"/>
       <c r="S401" s="3"/>
     </row>
-    <row r="403" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>0</v>
       </c>
@@ -7039,7 +7053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1</v>
       </c>
@@ -7047,7 +7061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>2</v>
       </c>
@@ -7055,7 +7069,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>3</v>
       </c>
@@ -7063,7 +7077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>5</v>
       </c>
@@ -7071,7 +7085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -7079,7 +7093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>9</v>
       </c>
@@ -7087,7 +7101,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>39</v>
       </c>
@@ -7095,12 +7109,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>11</v>
       </c>
@@ -7138,7 +7152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>56</v>
       </c>
@@ -7161,7 +7175,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>59</v>
       </c>
@@ -7183,7 +7197,7 @@
       <c r="Q414" s="3"/>
       <c r="S414" s="3"/>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>61</v>
       </c>
@@ -7203,7 +7217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>99</v>
       </c>
@@ -7226,7 +7240,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>42</v>
       </c>
@@ -7253,10 +7267,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A418" s="5"/>
     </row>
-    <row r="419" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>0</v>
       </c>
@@ -7264,7 +7278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1</v>
       </c>
@@ -7272,7 +7286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>2</v>
       </c>
@@ -7280,7 +7294,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>3</v>
       </c>
@@ -7288,7 +7302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>5</v>
       </c>
@@ -7296,7 +7310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -7304,7 +7318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>9</v>
       </c>
@@ -7312,7 +7326,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>39</v>
       </c>
@@ -7320,12 +7334,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>11</v>
       </c>
@@ -7363,7 +7377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>42</v>
       </c>
@@ -7386,7 +7400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>46</v>
       </c>
@@ -7409,7 +7423,7 @@
       <c r="Q430" s="3"/>
       <c r="S430" s="3"/>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>47</v>
       </c>
@@ -7431,7 +7445,7 @@
       <c r="Q431" s="4"/>
       <c r="S431" s="4"/>
     </row>
-    <row r="432" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>49</v>
       </c>
@@ -7454,7 +7468,7 @@
       <c r="Q432" s="3"/>
       <c r="S432" s="3"/>
     </row>
-    <row r="433" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>70</v>
       </c>
@@ -7479,7 +7493,7 @@
       <c r="Q433" s="3"/>
       <c r="S433" s="3"/>
     </row>
-    <row r="434" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>52</v>
       </c>
@@ -7502,7 +7516,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>53</v>
       </c>
@@ -7525,7 +7539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>63</v>
       </c>
@@ -7548,10 +7562,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B437" s="2"/>
     </row>
-    <row r="438" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>0</v>
       </c>
@@ -7559,7 +7573,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1</v>
       </c>
@@ -7567,7 +7581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>2</v>
       </c>
@@ -7575,7 +7589,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>3</v>
       </c>
@@ -7583,7 +7597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>5</v>
       </c>
@@ -7591,7 +7605,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>7</v>
       </c>
@@ -7599,7 +7613,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>9</v>
       </c>
@@ -7607,7 +7621,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>39</v>
       </c>
@@ -7615,12 +7629,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>11</v>
       </c>
@@ -7658,7 +7672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>63</v>
       </c>
@@ -7681,7 +7695,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>64</v>
       </c>
@@ -7703,7 +7717,7 @@
       <c r="Q449" s="3"/>
       <c r="S449" s="3"/>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>66</v>
       </c>
@@ -7723,7 +7737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>103</v>
       </c>
@@ -7746,7 +7760,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>0</v>
       </c>
@@ -7754,7 +7768,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1</v>
       </c>
@@ -7762,7 +7776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>2</v>
       </c>
@@ -7770,7 +7784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>3</v>
       </c>
@@ -7778,7 +7792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>5</v>
       </c>
@@ -7786,7 +7800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>7</v>
       </c>
@@ -7794,7 +7808,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>9</v>
       </c>
@@ -7802,7 +7816,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>39</v>
       </c>
@@ -7810,12 +7824,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>11</v>
       </c>
@@ -7853,7 +7867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>70</v>
       </c>
@@ -7876,7 +7890,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>46</v>
       </c>
@@ -7898,7 +7912,7 @@
       <c r="Q464" s="3"/>
       <c r="S464" s="3"/>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>47</v>
       </c>
@@ -7918,7 +7932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>49</v>
       </c>
@@ -7938,7 +7952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>73</v>
       </c>
@@ -7958,7 +7972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>74</v>
       </c>
@@ -7981,7 +7995,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>76</v>
       </c>
@@ -8004,7 +8018,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>78</v>
       </c>
@@ -8027,7 +8041,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="471" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>80</v>
       </c>
@@ -8050,7 +8064,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>24</v>
       </c>
@@ -8073,7 +8087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="473" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>82</v>
       </c>
@@ -8096,7 +8110,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>84</v>
       </c>
@@ -8119,7 +8133,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="475" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>104</v>
       </c>
@@ -8142,7 +8156,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>88</v>
       </c>
@@ -8165,7 +8179,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="477" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>90</v>
       </c>
@@ -8188,7 +8202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="478" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>91</v>
       </c>
@@ -8213,7 +8227,7 @@
       <c r="Q478" s="3"/>
       <c r="S478" s="3"/>
     </row>
-    <row r="479" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>93</v>
       </c>
@@ -8238,7 +8252,7 @@
       <c r="Q479" s="4"/>
       <c r="S479" s="4"/>
     </row>
-    <row r="480" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>53</v>
       </c>
@@ -8263,7 +8277,7 @@
       <c r="Q480" s="3"/>
       <c r="S480" s="3"/>
     </row>
-    <row r="481" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>95</v>
       </c>
@@ -8288,7 +8302,7 @@
       <c r="Q481" s="3"/>
       <c r="S481" s="3"/>
     </row>
-    <row r="483" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>0</v>
       </c>
@@ -8296,7 +8310,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1</v>
       </c>
@@ -8304,7 +8318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>2</v>
       </c>
@@ -8312,7 +8326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>3</v>
       </c>
@@ -8320,7 +8334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>5</v>
       </c>
@@ -8328,7 +8342,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>7</v>
       </c>
@@ -8336,7 +8350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>9</v>
       </c>
@@ -8344,7 +8358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>39</v>
       </c>
@@ -8352,12 +8366,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="491" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>11</v>
       </c>
@@ -8395,7 +8409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>56</v>
       </c>
@@ -8418,7 +8432,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>59</v>
       </c>
@@ -8440,7 +8454,7 @@
       <c r="Q494" s="3"/>
       <c r="S494" s="3"/>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>61</v>
       </c>
@@ -8460,7 +8474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="496" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>99</v>
       </c>
@@ -8483,7 +8497,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="497" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>42</v>
       </c>
@@ -8510,10 +8524,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A498" s="5"/>
     </row>
-    <row r="499" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>0</v>
       </c>
@@ -8521,7 +8535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1</v>
       </c>
@@ -8529,7 +8543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>2</v>
       </c>
@@ -8537,7 +8551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>3</v>
       </c>
@@ -8545,7 +8559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>5</v>
       </c>
@@ -8553,7 +8567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>7</v>
       </c>
@@ -8561,7 +8575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>9</v>
       </c>
@@ -8569,7 +8583,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>39</v>
       </c>
@@ -8577,12 +8591,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="507" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>11</v>
       </c>
@@ -8620,7 +8634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="509" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>42</v>
       </c>
@@ -8643,7 +8657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="510" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>46</v>
       </c>
@@ -8666,7 +8680,7 @@
       <c r="Q510" s="3"/>
       <c r="S510" s="3"/>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>47</v>
       </c>
@@ -8688,7 +8702,7 @@
       <c r="Q511" s="4"/>
       <c r="S511" s="4"/>
     </row>
-    <row r="512" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>49</v>
       </c>
@@ -8711,7 +8725,7 @@
       <c r="Q512" s="3"/>
       <c r="S512" s="3"/>
     </row>
-    <row r="513" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>70</v>
       </c>
@@ -8736,7 +8750,7 @@
       <c r="Q513" s="3"/>
       <c r="S513" s="3"/>
     </row>
-    <row r="514" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>52</v>
       </c>
@@ -8759,7 +8773,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="515" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>53</v>
       </c>
@@ -8782,7 +8796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="516" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>63</v>
       </c>
@@ -8805,10 +8819,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="517" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B517" s="2"/>
     </row>
-    <row r="518" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>0</v>
       </c>
@@ -8816,7 +8830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1</v>
       </c>
@@ -8824,7 +8838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>2</v>
       </c>
@@ -8832,7 +8846,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>3</v>
       </c>
@@ -8840,7 +8854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>5</v>
       </c>
@@ -8848,7 +8862,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>7</v>
       </c>
@@ -8856,7 +8870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>9</v>
       </c>
@@ -8864,7 +8878,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>39</v>
       </c>
@@ -8872,12 +8886,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="526" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>11</v>
       </c>
@@ -8915,7 +8929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="528" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>63</v>
       </c>
@@ -8938,7 +8952,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>64</v>
       </c>
@@ -8960,7 +8974,7 @@
       <c r="Q529" s="3"/>
       <c r="S529" s="3"/>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>66</v>
       </c>
@@ -8980,7 +8994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>67</v>
       </c>
@@ -9003,7 +9017,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="533" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>0</v>
       </c>
@@ -9011,7 +9025,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1</v>
       </c>
@@ -9019,7 +9033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>2</v>
       </c>
@@ -9027,7 +9041,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>3</v>
       </c>
@@ -9035,7 +9049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>5</v>
       </c>
@@ -9043,7 +9057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>7</v>
       </c>
@@ -9051,7 +9065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>9</v>
       </c>
@@ -9059,7 +9073,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>39</v>
       </c>
@@ -9067,12 +9081,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="541" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>11</v>
       </c>
@@ -9110,7 +9124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>70</v>
       </c>
@@ -9133,7 +9147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>46</v>
       </c>
@@ -9155,7 +9169,7 @@
       <c r="Q544" s="3"/>
       <c r="S544" s="3"/>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>47</v>
       </c>
@@ -9175,7 +9189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>49</v>
       </c>
@@ -9195,7 +9209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="547" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>73</v>
       </c>
@@ -9215,7 +9229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>74</v>
       </c>
@@ -9238,7 +9252,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="549" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>76</v>
       </c>
@@ -9261,7 +9275,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>78</v>
       </c>
@@ -9284,7 +9298,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="551" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>80</v>
       </c>
@@ -9307,7 +9321,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>24</v>
       </c>
@@ -9330,7 +9344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="553" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>82</v>
       </c>
@@ -9353,7 +9367,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>84</v>
       </c>
@@ -9376,7 +9390,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="555" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>87</v>
       </c>
@@ -9399,7 +9413,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>88</v>
       </c>
@@ -9422,7 +9436,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="557" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>90</v>
       </c>
@@ -9445,7 +9459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="558" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>91</v>
       </c>
@@ -9470,7 +9484,7 @@
       <c r="Q558" s="3"/>
       <c r="S558" s="3"/>
     </row>
-    <row r="559" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>93</v>
       </c>
@@ -9495,7 +9509,7 @@
       <c r="Q559" s="4"/>
       <c r="S559" s="4"/>
     </row>
-    <row r="560" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>53</v>
       </c>
@@ -9520,7 +9534,7 @@
       <c r="Q560" s="3"/>
       <c r="S560" s="3"/>
     </row>
-    <row r="561" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>95</v>
       </c>
@@ -9545,7 +9559,7 @@
       <c r="Q561" s="3"/>
       <c r="S561" s="3"/>
     </row>
-    <row r="563" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>0</v>
       </c>
@@ -9553,7 +9567,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1</v>
       </c>
@@ -9561,7 +9575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>2</v>
       </c>
@@ -9569,7 +9583,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>3</v>
       </c>
@@ -9577,7 +9591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>5</v>
       </c>
@@ -9585,7 +9599,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>7</v>
       </c>
@@ -9593,7 +9607,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>9</v>
       </c>
@@ -9601,7 +9615,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>39</v>
       </c>
@@ -9609,12 +9623,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="571" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>11</v>
       </c>
@@ -9652,7 +9666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="573" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>56</v>
       </c>
@@ -9675,7 +9689,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>59</v>
       </c>
@@ -9697,7 +9711,7 @@
       <c r="Q574" s="3"/>
       <c r="S574" s="3"/>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>61</v>
       </c>
@@ -9717,7 +9731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="576" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>99</v>
       </c>
@@ -9740,7 +9754,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="577" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>42</v>
       </c>
@@ -9767,10 +9781,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A578" s="5"/>
     </row>
-    <row r="579" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>0</v>
       </c>
@@ -9778,7 +9792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1</v>
       </c>
@@ -9786,7 +9800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>2</v>
       </c>
@@ -9794,7 +9808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>3</v>
       </c>
@@ -9802,7 +9816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>5</v>
       </c>
@@ -9810,7 +9824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>7</v>
       </c>
@@ -9818,7 +9832,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>9</v>
       </c>
@@ -9826,7 +9840,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>39</v>
       </c>
@@ -9834,12 +9848,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="587" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>11</v>
       </c>
@@ -9877,7 +9891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="589" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>42</v>
       </c>
@@ -9900,7 +9914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="590" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>46</v>
       </c>
@@ -9923,7 +9937,7 @@
       <c r="Q590" s="3"/>
       <c r="S590" s="3"/>
     </row>
-    <row r="591" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>47</v>
       </c>
@@ -9945,7 +9959,7 @@
       <c r="Q591" s="4"/>
       <c r="S591" s="4"/>
     </row>
-    <row r="592" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>49</v>
       </c>
@@ -9968,7 +9982,7 @@
       <c r="Q592" s="3"/>
       <c r="S592" s="3"/>
     </row>
-    <row r="593" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>70</v>
       </c>
@@ -9993,7 +10007,7 @@
       <c r="Q593" s="3"/>
       <c r="S593" s="3"/>
     </row>
-    <row r="594" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>52</v>
       </c>
@@ -10016,7 +10030,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="595" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>53</v>
       </c>
@@ -10039,7 +10053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="596" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>63</v>
       </c>
@@ -10062,10 +10076,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="597" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B597" s="2"/>
     </row>
-    <row r="598" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>0</v>
       </c>
@@ -10073,7 +10087,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1</v>
       </c>
@@ -10081,7 +10095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>2</v>
       </c>
@@ -10089,7 +10103,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>3</v>
       </c>
@@ -10097,7 +10111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>5</v>
       </c>
@@ -10105,7 +10119,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>7</v>
       </c>
@@ -10113,7 +10127,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>9</v>
       </c>
@@ -10121,7 +10135,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>39</v>
       </c>
@@ -10129,12 +10143,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="606" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>11</v>
       </c>
@@ -10172,7 +10186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="608" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>63</v>
       </c>
@@ -10195,7 +10209,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="609" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>64</v>
       </c>
@@ -10217,7 +10231,7 @@
       <c r="Q609" s="3"/>
       <c r="S609" s="3"/>
     </row>
-    <row r="610" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>66</v>
       </c>
@@ -10237,7 +10251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="611" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>103</v>
       </c>
@@ -10260,7 +10274,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="613" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>0</v>
       </c>
@@ -10268,7 +10282,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="614" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1</v>
       </c>
@@ -10276,7 +10290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>2</v>
       </c>
@@ -10284,7 +10298,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="616" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>3</v>
       </c>
@@ -10292,7 +10306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="617" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>5</v>
       </c>
@@ -10300,7 +10314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="618" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>7</v>
       </c>
@@ -10308,7 +10322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="619" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>9</v>
       </c>
@@ -10316,7 +10330,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="620" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>39</v>
       </c>
@@ -10324,12 +10338,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="621" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="622" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>11</v>
       </c>
@@ -10367,7 +10381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
         <v>70</v>
       </c>
@@ -10390,7 +10404,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="624" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>46</v>
       </c>
@@ -10412,7 +10426,7 @@
       <c r="Q624" s="3"/>
       <c r="S624" s="3"/>
     </row>
-    <row r="625" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>47</v>
       </c>
@@ -10432,7 +10446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="626" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>49</v>
       </c>
@@ -10452,7 +10466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="627" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
         <v>73</v>
       </c>
@@ -10472,7 +10486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="628" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>74</v>
       </c>
@@ -10495,7 +10509,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="629" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>76</v>
       </c>
@@ -10518,7 +10532,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>78</v>
       </c>
@@ -10541,7 +10555,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="631" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>80</v>
       </c>
@@ -10564,7 +10578,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="632" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>24</v>
       </c>
@@ -10587,7 +10601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="633" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>82</v>
       </c>
@@ -10610,7 +10624,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>84</v>
       </c>
@@ -10633,7 +10647,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="635" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
         <v>104</v>
       </c>
@@ -10656,7 +10670,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="636" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>88</v>
       </c>
@@ -10679,7 +10693,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="637" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>90</v>
       </c>
@@ -10702,7 +10716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="638" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
         <v>91</v>
       </c>
@@ -10727,7 +10741,7 @@
       <c r="Q638" s="3"/>
       <c r="S638" s="3"/>
     </row>
-    <row r="639" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
         <v>93</v>
       </c>
@@ -10752,7 +10766,7 @@
       <c r="Q639" s="4"/>
       <c r="S639" s="4"/>
     </row>
-    <row r="640" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
         <v>53</v>
       </c>
@@ -10777,7 +10791,7 @@
       <c r="Q640" s="3"/>
       <c r="S640" s="3"/>
     </row>
-    <row r="641" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
         <v>95</v>
       </c>
@@ -10802,7 +10816,7 @@
       <c r="Q641" s="3"/>
       <c r="S641" s="3"/>
     </row>
-    <row r="643" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>0</v>
       </c>
@@ -10810,7 +10824,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="644" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1</v>
       </c>
@@ -10818,7 +10832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>2</v>
       </c>
@@ -10826,7 +10840,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="646" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>3</v>
       </c>
@@ -10834,7 +10848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="647" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>5</v>
       </c>
@@ -10842,7 +10856,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="648" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>7</v>
       </c>
@@ -10850,7 +10864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="649" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>9</v>
       </c>
@@ -10858,7 +10872,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="650" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>39</v>
       </c>
@@ -10866,12 +10880,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="651" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="652" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>11</v>
       </c>
@@ -10909,7 +10923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="653" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
         <v>56</v>
       </c>
@@ -10932,7 +10946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="654" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>59</v>
       </c>
@@ -10954,7 +10968,7 @@
       <c r="Q654" s="3"/>
       <c r="S654" s="3"/>
     </row>
-    <row r="655" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>61</v>
       </c>
@@ -10974,7 +10988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="656" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
         <v>99</v>
       </c>
@@ -10997,7 +11011,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="657" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
         <v>42</v>
       </c>
@@ -11024,10 +11038,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="658" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A658" s="5"/>
     </row>
-    <row r="659" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>0</v>
       </c>
@@ -11035,7 +11049,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="660" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1</v>
       </c>
@@ -11043,7 +11057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>2</v>
       </c>
@@ -11051,7 +11065,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="662" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>3</v>
       </c>
@@ -11059,7 +11073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="663" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>5</v>
       </c>
@@ -11067,7 +11081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="664" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>7</v>
       </c>
@@ -11075,7 +11089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="665" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>9</v>
       </c>
@@ -11083,7 +11097,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="666" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>39</v>
       </c>
@@ -11091,12 +11105,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="667" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="668" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>11</v>
       </c>
@@ -11134,7 +11148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="669" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
         <v>42</v>
       </c>
@@ -11157,7 +11171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="670" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
         <v>46</v>
       </c>
@@ -11180,7 +11194,7 @@
       <c r="Q670" s="3"/>
       <c r="S670" s="3"/>
     </row>
-    <row r="671" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>47</v>
       </c>
@@ -11202,7 +11216,7 @@
       <c r="Q671" s="4"/>
       <c r="S671" s="4"/>
     </row>
-    <row r="672" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
         <v>49</v>
       </c>
@@ -11225,7 +11239,7 @@
       <c r="Q672" s="3"/>
       <c r="S672" s="3"/>
     </row>
-    <row r="673" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
         <v>70</v>
       </c>
@@ -11250,7 +11264,7 @@
       <c r="Q673" s="3"/>
       <c r="S673" s="3"/>
     </row>
-    <row r="674" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
         <v>52</v>
       </c>
@@ -11273,7 +11287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="675" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
         <v>53</v>
       </c>
@@ -11296,7 +11310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="676" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
         <v>63</v>
       </c>
@@ -11319,10 +11333,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="677" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B677" s="2"/>
     </row>
-    <row r="678" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>0</v>
       </c>
@@ -11330,7 +11344,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="679" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1</v>
       </c>
@@ -11338,7 +11352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>2</v>
       </c>
@@ -11346,7 +11360,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="681" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>3</v>
       </c>
@@ -11354,7 +11368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="682" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>5</v>
       </c>
@@ -11362,7 +11376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="683" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>7</v>
       </c>
@@ -11370,7 +11384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="684" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>9</v>
       </c>
@@ -11378,7 +11392,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="685" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>39</v>
       </c>
@@ -11386,12 +11400,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="686" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="687" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>11</v>
       </c>
@@ -11429,7 +11443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="688" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
         <v>63</v>
       </c>
@@ -11452,7 +11466,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="689" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>64</v>
       </c>
@@ -11474,7 +11488,7 @@
       <c r="Q689" s="3"/>
       <c r="S689" s="3"/>
     </row>
-    <row r="690" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>66</v>
       </c>
@@ -11494,7 +11508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="691" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
         <v>67</v>
       </c>
@@ -11517,7 +11531,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="693" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>0</v>
       </c>
@@ -11525,7 +11539,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="694" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1</v>
       </c>
@@ -11533,7 +11547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>2</v>
       </c>
@@ -11541,7 +11555,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="696" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>3</v>
       </c>
@@ -11549,7 +11563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="697" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>5</v>
       </c>
@@ -11557,7 +11571,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="698" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>7</v>
       </c>
@@ -11565,7 +11579,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="699" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>9</v>
       </c>
@@ -11573,7 +11587,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="700" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>39</v>
       </c>
@@ -11581,12 +11595,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="701" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>11</v>
       </c>
@@ -11624,7 +11638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="703" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
         <v>70</v>
       </c>
@@ -11647,7 +11661,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="704" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>46</v>
       </c>
@@ -11669,7 +11683,7 @@
       <c r="Q704" s="3"/>
       <c r="S704" s="3"/>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>47</v>
       </c>
@@ -11689,7 +11703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>49</v>
       </c>
@@ -11709,7 +11723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="707" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
         <v>73</v>
       </c>
@@ -11729,7 +11743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>74</v>
       </c>
@@ -11752,7 +11766,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="709" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>76</v>
       </c>
@@ -11775,7 +11789,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>78</v>
       </c>
@@ -11798,7 +11812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="711" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>80</v>
       </c>
@@ -11821,7 +11835,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>24</v>
       </c>
@@ -11844,7 +11858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="713" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>82</v>
       </c>
@@ -11867,7 +11881,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>84</v>
       </c>
@@ -11890,7 +11904,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="715" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
         <v>87</v>
       </c>
@@ -11913,7 +11927,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>88</v>
       </c>
@@ -11936,7 +11950,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="717" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
         <v>90</v>
       </c>
@@ -11959,7 +11973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="718" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="s">
         <v>91</v>
       </c>
@@ -11984,7 +11998,7 @@
       <c r="Q718" s="3"/>
       <c r="S718" s="3"/>
     </row>
-    <row r="719" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
         <v>93</v>
       </c>
@@ -12009,7 +12023,7 @@
       <c r="Q719" s="4"/>
       <c r="S719" s="4"/>
     </row>
-    <row r="720" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
         <v>53</v>
       </c>
@@ -12034,7 +12048,7 @@
       <c r="Q720" s="3"/>
       <c r="S720" s="3"/>
     </row>
-    <row r="721" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
         <v>95</v>
       </c>
@@ -12059,7 +12073,7 @@
       <c r="Q721" s="3"/>
       <c r="S721" s="3"/>
     </row>
-    <row r="723" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>0</v>
       </c>
@@ -12067,7 +12081,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="724" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1</v>
       </c>
@@ -12075,7 +12089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>2</v>
       </c>
@@ -12083,7 +12097,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>3</v>
       </c>
@@ -12091,7 +12105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="727" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>5</v>
       </c>
@@ -12099,7 +12113,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="728" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>7</v>
       </c>
@@ -12107,7 +12121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="729" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>9</v>
       </c>
@@ -12115,7 +12129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>39</v>
       </c>
@@ -12123,12 +12137,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="731" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="732" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>11</v>
       </c>
@@ -12166,7 +12180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="733" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
         <v>56</v>
       </c>
@@ -12189,7 +12203,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="734" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>59</v>
       </c>
@@ -12211,7 +12225,7 @@
       <c r="Q734" s="3"/>
       <c r="S734" s="3"/>
     </row>
-    <row r="735" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>61</v>
       </c>
@@ -12231,7 +12245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="736" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
         <v>99</v>
       </c>
@@ -12254,7 +12268,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="737" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
         <v>42</v>
       </c>
@@ -12281,10 +12295,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="738" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A738" s="5"/>
     </row>
-    <row r="739" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>0</v>
       </c>
@@ -12292,7 +12306,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="740" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1</v>
       </c>
@@ -12300,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>2</v>
       </c>
@@ -12308,7 +12322,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="742" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>3</v>
       </c>
@@ -12316,7 +12330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="743" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>5</v>
       </c>
@@ -12324,7 +12338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="744" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>7</v>
       </c>
@@ -12332,7 +12346,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="745" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>9</v>
       </c>
@@ -12340,7 +12354,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="746" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>39</v>
       </c>
@@ -12348,12 +12362,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="747" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="748" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>11</v>
       </c>
@@ -12391,7 +12405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="749" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
         <v>42</v>
       </c>
@@ -12414,7 +12428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="750" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="s">
         <v>46</v>
       </c>
@@ -12437,7 +12451,7 @@
       <c r="Q750" s="3"/>
       <c r="S750" s="3"/>
     </row>
-    <row r="751" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>47</v>
       </c>
@@ -12459,7 +12473,7 @@
       <c r="Q751" s="4"/>
       <c r="S751" s="4"/>
     </row>
-    <row r="752" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="s">
         <v>49</v>
       </c>
@@ -12482,7 +12496,7 @@
       <c r="Q752" s="3"/>
       <c r="S752" s="3"/>
     </row>
-    <row r="753" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
         <v>70</v>
       </c>
@@ -12507,7 +12521,7 @@
       <c r="Q753" s="3"/>
       <c r="S753" s="3"/>
     </row>
-    <row r="754" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
         <v>52</v>
       </c>
@@ -12530,7 +12544,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="755" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
         <v>53</v>
       </c>
@@ -12553,7 +12567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="756" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
         <v>63</v>
       </c>
@@ -12576,10 +12590,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="757" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B757" s="2"/>
     </row>
-    <row r="758" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
         <v>0</v>
       </c>
@@ -12587,7 +12601,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="759" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1</v>
       </c>
@@ -12595,7 +12609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>2</v>
       </c>
@@ -12603,7 +12617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="761" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>3</v>
       </c>
@@ -12611,7 +12625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="762" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>5</v>
       </c>
@@ -12619,7 +12633,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="763" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>7</v>
       </c>
@@ -12627,7 +12641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="764" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>9</v>
       </c>
@@ -12635,7 +12649,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="765" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>39</v>
       </c>
@@ -12643,12 +12657,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="766" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="767" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>11</v>
       </c>
@@ -12686,7 +12700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="768" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
         <v>63</v>
       </c>
@@ -12709,7 +12723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="769" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>64</v>
       </c>
@@ -12731,7 +12745,7 @@
       <c r="Q769" s="3"/>
       <c r="S769" s="3"/>
     </row>
-    <row r="770" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>66</v>
       </c>
@@ -12751,7 +12765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="771" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
         <v>67</v>
       </c>
@@ -12774,7 +12788,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="773" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
         <v>0</v>
       </c>
@@ -12782,7 +12796,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="774" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1</v>
       </c>
@@ -12790,7 +12804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>2</v>
       </c>
@@ -12798,7 +12812,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="776" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>3</v>
       </c>
@@ -12806,7 +12820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="777" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>5</v>
       </c>
@@ -12814,7 +12828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="778" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>7</v>
       </c>
@@ -12822,7 +12836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="779" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>9</v>
       </c>
@@ -12830,7 +12844,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="780" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>39</v>
       </c>
@@ -12838,12 +12852,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="781" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="782" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>11</v>
       </c>
@@ -12881,7 +12895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="783" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A783" s="2" t="s">
         <v>70</v>
       </c>
@@ -12904,7 +12918,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="784" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>46</v>
       </c>
@@ -12926,7 +12940,7 @@
       <c r="Q784" s="3"/>
       <c r="S784" s="3"/>
     </row>
-    <row r="785" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>47</v>
       </c>
@@ -12946,7 +12960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="786" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>49</v>
       </c>
@@ -12966,7 +12980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="787" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A787" s="2" t="s">
         <v>73</v>
       </c>
@@ -12986,7 +13000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="788" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>74</v>
       </c>
@@ -13009,7 +13023,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="789" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>76</v>
       </c>
@@ -13032,7 +13046,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="790" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>78</v>
       </c>
@@ -13055,7 +13069,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="791" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>80</v>
       </c>
@@ -13078,7 +13092,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="792" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>24</v>
       </c>
@@ -13101,7 +13115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="793" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>82</v>
       </c>
@@ -13124,7 +13138,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="794" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>84</v>
       </c>
@@ -13147,7 +13161,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="795" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A795" s="2" t="s">
         <v>87</v>
       </c>
@@ -13170,7 +13184,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="796" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>88</v>
       </c>
@@ -13193,7 +13207,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="797" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A797" s="2" t="s">
         <v>90</v>
       </c>
@@ -13216,7 +13230,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="798" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A798" s="2" t="s">
         <v>91</v>
       </c>
@@ -13241,7 +13255,7 @@
       <c r="Q798" s="3"/>
       <c r="S798" s="3"/>
     </row>
-    <row r="799" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A799" s="2" t="s">
         <v>93</v>
       </c>
@@ -13266,7 +13280,7 @@
       <c r="Q799" s="4"/>
       <c r="S799" s="4"/>
     </row>
-    <row r="800" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A800" s="2" t="s">
         <v>53</v>
       </c>
@@ -13291,7 +13305,7 @@
       <c r="Q800" s="3"/>
       <c r="S800" s="3"/>
     </row>
-    <row r="801" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="s">
         <v>95</v>
       </c>
@@ -13316,7 +13330,7 @@
       <c r="Q801" s="3"/>
       <c r="S801" s="3"/>
     </row>
-    <row r="803" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
         <v>0</v>
       </c>
@@ -13324,7 +13338,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="804" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1</v>
       </c>
@@ -13332,7 +13346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>2</v>
       </c>
@@ -13340,7 +13354,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="806" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>3</v>
       </c>
@@ -13348,7 +13362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="807" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>5</v>
       </c>
@@ -13356,7 +13370,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="808" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>7</v>
       </c>
@@ -13364,7 +13378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="809" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>9</v>
       </c>
@@ -13372,7 +13386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="810" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>39</v>
       </c>
@@ -13380,12 +13394,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="811" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="812" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>11</v>
       </c>
@@ -13423,7 +13437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="813" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
         <v>56</v>
       </c>
@@ -13446,7 +13460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="814" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>59</v>
       </c>
@@ -13468,7 +13482,7 @@
       <c r="Q814" s="3"/>
       <c r="S814" s="3"/>
     </row>
-    <row r="815" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>61</v>
       </c>
@@ -13488,7 +13502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="816" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="s">
         <v>99</v>
       </c>
@@ -13511,7 +13525,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="817" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A817" s="2" t="s">
         <v>42</v>
       </c>
@@ -13538,10 +13552,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="818" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A818" s="5"/>
     </row>
-    <row r="819" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
         <v>0</v>
       </c>
@@ -13549,7 +13563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="820" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>1</v>
       </c>
@@ -13557,7 +13571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>2</v>
       </c>
@@ -13565,7 +13579,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="822" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>3</v>
       </c>
@@ -13573,7 +13587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="823" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>5</v>
       </c>
@@ -13581,7 +13595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="824" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>7</v>
       </c>
@@ -13589,7 +13603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="825" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>9</v>
       </c>
@@ -13597,7 +13611,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="826" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>39</v>
       </c>
@@ -13605,12 +13619,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="827" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="828" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>11</v>
       </c>
@@ -13648,7 +13662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="829" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A829" s="2" t="s">
         <v>42</v>
       </c>
@@ -13671,7 +13685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="830" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="s">
         <v>46</v>
       </c>
@@ -13694,7 +13708,7 @@
       <c r="Q830" s="3"/>
       <c r="S830" s="3"/>
     </row>
-    <row r="831" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>47</v>
       </c>
@@ -13716,7 +13730,7 @@
       <c r="Q831" s="4"/>
       <c r="S831" s="4"/>
     </row>
-    <row r="832" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A832" s="2" t="s">
         <v>49</v>
       </c>
@@ -13739,7 +13753,7 @@
       <c r="Q832" s="3"/>
       <c r="S832" s="3"/>
     </row>
-    <row r="833" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A833" s="2" t="s">
         <v>70</v>
       </c>
@@ -13764,7 +13778,7 @@
       <c r="Q833" s="3"/>
       <c r="S833" s="3"/>
     </row>
-    <row r="834" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A834" s="2" t="s">
         <v>52</v>
       </c>
@@ -13787,7 +13801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="835" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A835" s="2" t="s">
         <v>53</v>
       </c>
@@ -13810,7 +13824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="836" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A836" s="2" t="s">
         <v>63</v>
       </c>
@@ -13833,10 +13847,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="837" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B837" s="2"/>
     </row>
-    <row r="838" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
         <v>0</v>
       </c>
@@ -13844,7 +13858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="839" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>1</v>
       </c>
@@ -13852,7 +13866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>2</v>
       </c>
@@ -13860,7 +13874,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="841" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>3</v>
       </c>
@@ -13868,7 +13882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="842" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>5</v>
       </c>
@@ -13876,7 +13890,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="843" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>7</v>
       </c>
@@ -13884,7 +13898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="844" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>9</v>
       </c>
@@ -13892,7 +13906,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="845" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>39</v>
       </c>
@@ -13900,12 +13914,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="846" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="847" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>11</v>
       </c>
@@ -13943,7 +13957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="848" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A848" s="2" t="s">
         <v>63</v>
       </c>
@@ -13966,7 +13980,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="849" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>64</v>
       </c>
@@ -13988,7 +14002,7 @@
       <c r="Q849" s="3"/>
       <c r="S849" s="3"/>
     </row>
-    <row r="850" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>66</v>
       </c>
@@ -14008,7 +14022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="851" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="s">
         <v>67</v>
       </c>
@@ -14031,7 +14045,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="853" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
         <v>0</v>
       </c>
@@ -14039,7 +14053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="854" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>1</v>
       </c>
@@ -14047,7 +14061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>2</v>
       </c>
@@ -14055,7 +14069,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="856" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>3</v>
       </c>
@@ -14063,7 +14077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="857" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>5</v>
       </c>
@@ -14071,7 +14085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="858" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>7</v>
       </c>
@@ -14079,7 +14093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="859" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>9</v>
       </c>
@@ -14087,7 +14101,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="860" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>39</v>
       </c>
@@ -14095,12 +14109,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="861" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="862" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>11</v>
       </c>
@@ -14138,7 +14152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="863" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A863" s="2" t="s">
         <v>70</v>
       </c>
@@ -14161,7 +14175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="864" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>46</v>
       </c>
@@ -14183,7 +14197,7 @@
       <c r="Q864" s="3"/>
       <c r="S864" s="3"/>
     </row>
-    <row r="865" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>47</v>
       </c>
@@ -14203,7 +14217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="866" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>49</v>
       </c>
@@ -14223,7 +14237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="867" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A867" s="2" t="s">
         <v>73</v>
       </c>
@@ -14243,7 +14257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="868" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>74</v>
       </c>
@@ -14266,7 +14280,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="869" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>76</v>
       </c>
@@ -14289,7 +14303,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="870" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>78</v>
       </c>
@@ -14312,7 +14326,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="871" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>80</v>
       </c>
@@ -14335,7 +14349,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="872" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>24</v>
       </c>
@@ -14358,7 +14372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="873" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>82</v>
       </c>
@@ -14381,7 +14395,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="874" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>84</v>
       </c>
@@ -14404,7 +14418,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="875" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A875" s="2" t="s">
         <v>87</v>
       </c>
@@ -14427,7 +14441,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="876" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>88</v>
       </c>
@@ -14450,7 +14464,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="877" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A877" s="2" t="s">
         <v>90</v>
       </c>
@@ -14473,7 +14487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="878" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A878" s="2" t="s">
         <v>91</v>
       </c>
@@ -14498,7 +14512,7 @@
       <c r="Q878" s="3"/>
       <c r="S878" s="3"/>
     </row>
-    <row r="879" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A879" s="2" t="s">
         <v>93</v>
       </c>
@@ -14523,7 +14537,7 @@
       <c r="Q879" s="4"/>
       <c r="S879" s="4"/>
     </row>
-    <row r="880" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A880" s="2" t="s">
         <v>53</v>
       </c>
@@ -14548,7 +14562,7 @@
       <c r="Q880" s="3"/>
       <c r="S880" s="3"/>
     </row>
-    <row r="881" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A881" s="2" t="s">
         <v>95</v>
       </c>
@@ -14573,7 +14587,7 @@
       <c r="Q881" s="3"/>
       <c r="S881" s="3"/>
     </row>
-    <row r="883" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
         <v>0</v>
       </c>
@@ -14581,7 +14595,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="884" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>1</v>
       </c>
@@ -14589,7 +14603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>2</v>
       </c>
@@ -14597,7 +14611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="886" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>3</v>
       </c>
@@ -14605,7 +14619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="887" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>5</v>
       </c>
@@ -14613,7 +14627,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="888" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>7</v>
       </c>
@@ -14621,7 +14635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="889" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>9</v>
       </c>
@@ -14629,7 +14643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="890" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>39</v>
       </c>
@@ -14637,12 +14651,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="891" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="892" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>11</v>
       </c>
@@ -14680,7 +14694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="893" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="s">
         <v>56</v>
       </c>
@@ -14703,7 +14717,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="894" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>59</v>
       </c>
@@ -14725,7 +14739,7 @@
       <c r="Q894" s="3"/>
       <c r="S894" s="3"/>
     </row>
-    <row r="895" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>61</v>
       </c>
@@ -14745,7 +14759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="896" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
         <v>99</v>
       </c>
@@ -14768,7 +14782,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="897" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A897" s="2" t="s">
         <v>42</v>
       </c>
@@ -14795,10 +14809,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="898" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A898" s="5"/>
     </row>
-    <row r="899" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
         <v>0</v>
       </c>
@@ -14806,7 +14820,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="900" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>1</v>
       </c>
@@ -14814,7 +14828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>2</v>
       </c>
@@ -14822,7 +14836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="902" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>3</v>
       </c>
@@ -14830,7 +14844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="903" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>5</v>
       </c>
@@ -14838,7 +14852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="904" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>7</v>
       </c>
@@ -14846,7 +14860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="905" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>9</v>
       </c>
@@ -14854,7 +14868,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="906" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>39</v>
       </c>
@@ -14862,12 +14876,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="907" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="908" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>11</v>
       </c>
@@ -14905,7 +14919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="909" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
         <v>42</v>
       </c>
@@ -14928,7 +14942,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="910" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A910" s="2" t="s">
         <v>46</v>
       </c>
@@ -14951,7 +14965,7 @@
       <c r="Q910" s="3"/>
       <c r="S910" s="3"/>
     </row>
-    <row r="911" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>47</v>
       </c>
@@ -14973,7 +14987,7 @@
       <c r="Q911" s="4"/>
       <c r="S911" s="4"/>
     </row>
-    <row r="912" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A912" s="2" t="s">
         <v>49</v>
       </c>
@@ -14996,7 +15010,7 @@
       <c r="Q912" s="3"/>
       <c r="S912" s="3"/>
     </row>
-    <row r="913" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A913" s="2" t="s">
         <v>70</v>
       </c>
@@ -15021,7 +15035,7 @@
       <c r="Q913" s="3"/>
       <c r="S913" s="3"/>
     </row>
-    <row r="914" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A914" s="2" t="s">
         <v>52</v>
       </c>
@@ -15044,7 +15058,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="915" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A915" s="2" t="s">
         <v>53</v>
       </c>
@@ -15067,7 +15081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="916" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A916" s="2" t="s">
         <v>63</v>
       </c>
@@ -15090,10 +15104,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="917" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B917" s="2"/>
     </row>
-    <row r="918" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
         <v>0</v>
       </c>
@@ -15101,7 +15115,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="919" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>1</v>
       </c>
@@ -15109,7 +15123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>2</v>
       </c>
@@ -15117,7 +15131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="921" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>3</v>
       </c>
@@ -15125,7 +15139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="922" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>5</v>
       </c>
@@ -15133,7 +15147,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="923" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>7</v>
       </c>
@@ -15141,7 +15155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="924" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>9</v>
       </c>
@@ -15149,7 +15163,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="925" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>39</v>
       </c>
@@ -15157,12 +15171,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="926" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="927" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>11</v>
       </c>
@@ -15200,7 +15214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="928" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A928" s="2" t="s">
         <v>63</v>
       </c>
@@ -15223,7 +15237,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="929" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>64</v>
       </c>
@@ -15245,7 +15259,7 @@
       <c r="Q929" s="3"/>
       <c r="S929" s="3"/>
     </row>
-    <row r="930" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>66</v>
       </c>
@@ -15265,7 +15279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="931" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A931" s="2" t="s">
         <v>67</v>
       </c>
@@ -15288,7 +15302,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="933" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
         <v>0</v>
       </c>
@@ -15296,7 +15310,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="934" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>1</v>
       </c>
@@ -15304,7 +15318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>2</v>
       </c>
@@ -15312,7 +15326,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="936" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>3</v>
       </c>
@@ -15320,7 +15334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="937" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>5</v>
       </c>
@@ -15328,7 +15342,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="938" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>7</v>
       </c>
@@ -15336,7 +15350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="939" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>9</v>
       </c>
@@ -15344,7 +15358,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="940" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>39</v>
       </c>
@@ -15352,12 +15366,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="941" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="942" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>11</v>
       </c>
@@ -15395,7 +15409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="943" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A943" s="2" t="s">
         <v>70</v>
       </c>
@@ -15418,7 +15432,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="944" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>46</v>
       </c>
@@ -15440,7 +15454,7 @@
       <c r="Q944" s="3"/>
       <c r="S944" s="3"/>
     </row>
-    <row r="945" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>47</v>
       </c>
@@ -15460,7 +15474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="946" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>49</v>
       </c>
@@ -15480,7 +15494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="947" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A947" s="2" t="s">
         <v>73</v>
       </c>
@@ -15500,7 +15514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="948" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>74</v>
       </c>
@@ -15523,7 +15537,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="949" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>76</v>
       </c>
@@ -15546,7 +15560,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="950" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>78</v>
       </c>
@@ -15569,7 +15583,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="951" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>80</v>
       </c>
@@ -15592,7 +15606,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="952" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>24</v>
       </c>
@@ -15615,7 +15629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="953" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>82</v>
       </c>
@@ -15638,7 +15652,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="954" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>84</v>
       </c>
@@ -15661,7 +15675,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="955" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A955" s="2" t="s">
         <v>87</v>
       </c>
@@ -15684,7 +15698,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="956" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>88</v>
       </c>
@@ -15707,7 +15721,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="957" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A957" s="2" t="s">
         <v>90</v>
       </c>
@@ -15730,7 +15744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="958" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A958" s="2" t="s">
         <v>91</v>
       </c>
@@ -15755,7 +15769,7 @@
       <c r="Q958" s="3"/>
       <c r="S958" s="3"/>
     </row>
-    <row r="959" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A959" s="2" t="s">
         <v>93</v>
       </c>
@@ -15780,7 +15794,7 @@
       <c r="Q959" s="4"/>
       <c r="S959" s="4"/>
     </row>
-    <row r="960" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A960" s="2" t="s">
         <v>53</v>
       </c>
@@ -15805,7 +15819,7 @@
       <c r="Q960" s="3"/>
       <c r="S960" s="3"/>
     </row>
-    <row r="961" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A961" s="2" t="s">
         <v>95</v>
       </c>
@@ -15830,389 +15844,389 @@
       <c r="Q961" s="3"/>
       <c r="S961" s="3"/>
     </row>
-    <row r="963" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
     </row>
-    <row r="965" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B965" s="2"/>
     </row>
-    <row r="971" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
     </row>
-    <row r="973" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="L973" s="2"/>
     </row>
-    <row r="974" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="L974" s="2"/>
       <c r="Q974" s="3"/>
       <c r="S974" s="3"/>
     </row>
-    <row r="975" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q975" s="4"/>
       <c r="S975" s="4"/>
     </row>
-    <row r="976" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="L976" s="2"/>
       <c r="Q976" s="3"/>
       <c r="S976" s="3"/>
     </row>
-    <row r="977" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q977" s="3"/>
       <c r="S977" s="3"/>
     </row>
-    <row r="979" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
     </row>
-    <row r="981" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B981" s="2"/>
     </row>
-    <row r="987" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
     </row>
-    <row r="989" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="L989" s="2"/>
     </row>
-    <row r="990" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="L990" s="2"/>
       <c r="Q990" s="3"/>
       <c r="S990" s="3"/>
     </row>
-    <row r="991" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q991" s="4"/>
       <c r="S991" s="4"/>
     </row>
-    <row r="992" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="L992" s="2"/>
       <c r="Q992" s="3"/>
       <c r="S992" s="3"/>
     </row>
-    <row r="993" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q993" s="3"/>
       <c r="S993" s="3"/>
     </row>
-    <row r="995" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
     </row>
-    <row r="997" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B997" s="2"/>
     </row>
-    <row r="1003" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1003" s="1"/>
     </row>
-    <row r="1005" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1005" s="2"/>
       <c r="L1005" s="2"/>
     </row>
-    <row r="1006" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1006" s="2"/>
       <c r="L1006" s="2"/>
       <c r="Q1006" s="3"/>
       <c r="S1006" s="3"/>
     </row>
-    <row r="1007" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q1007" s="4"/>
       <c r="S1007" s="4"/>
     </row>
-    <row r="1008" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1008" s="2"/>
       <c r="L1008" s="2"/>
       <c r="Q1008" s="3"/>
       <c r="S1008" s="3"/>
     </row>
-    <row r="1009" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q1009" s="3"/>
       <c r="S1009" s="3"/>
     </row>
-    <row r="1011" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1011" s="1"/>
       <c r="B1011" s="1"/>
     </row>
-    <row r="1013" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1013" s="2"/>
     </row>
-    <row r="1019" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1019" s="1"/>
     </row>
-    <row r="1021" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1021" s="2"/>
       <c r="L1021" s="2"/>
     </row>
-    <row r="1022" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1022" s="2"/>
       <c r="L1022" s="2"/>
       <c r="Q1022" s="3"/>
       <c r="S1022" s="3"/>
     </row>
-    <row r="1023" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q1023" s="4"/>
       <c r="S1023" s="4"/>
     </row>
-    <row r="1024" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1024" s="2"/>
       <c r="L1024" s="2"/>
       <c r="Q1024" s="3"/>
       <c r="S1024" s="3"/>
     </row>
-    <row r="1025" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q1025" s="3"/>
       <c r="S1025" s="3"/>
     </row>
-    <row r="1027" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1027" s="1"/>
       <c r="B1027" s="1"/>
     </row>
-    <row r="1029" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1029" s="2"/>
     </row>
-    <row r="1035" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1035" s="1"/>
     </row>
-    <row r="1037" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1037" s="2"/>
       <c r="L1037" s="2"/>
     </row>
-    <row r="1038" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1038" s="2"/>
       <c r="L1038" s="2"/>
       <c r="Q1038" s="3"/>
       <c r="S1038" s="3"/>
     </row>
-    <row r="1039" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q1039" s="4"/>
       <c r="S1039" s="4"/>
     </row>
-    <row r="1040" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1040" s="2"/>
       <c r="L1040" s="2"/>
       <c r="Q1040" s="3"/>
       <c r="S1040" s="3"/>
     </row>
-    <row r="1041" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q1041" s="3"/>
       <c r="S1041" s="3"/>
     </row>
-    <row r="1043" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1043" s="1"/>
       <c r="B1043" s="1"/>
     </row>
-    <row r="1045" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1045" s="2"/>
     </row>
-    <row r="1051" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1051" s="1"/>
     </row>
-    <row r="1053" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1053" s="2"/>
       <c r="L1053" s="2"/>
     </row>
-    <row r="1054" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1054" s="2"/>
       <c r="L1054" s="2"/>
       <c r="Q1054" s="3"/>
       <c r="S1054" s="3"/>
     </row>
-    <row r="1055" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q1055" s="4"/>
       <c r="S1055" s="4"/>
     </row>
-    <row r="1056" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1056" s="2"/>
       <c r="L1056" s="2"/>
       <c r="Q1056" s="3"/>
       <c r="S1056" s="3"/>
     </row>
-    <row r="1057" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q1057" s="3"/>
       <c r="S1057" s="3"/>
     </row>
-    <row r="1059" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1059" s="1"/>
       <c r="B1059" s="1"/>
     </row>
-    <row r="1061" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1061" s="2"/>
     </row>
-    <row r="1067" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1067" s="1"/>
     </row>
-    <row r="1069" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1069" s="2"/>
       <c r="L1069" s="2"/>
     </row>
-    <row r="1070" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1070" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1070" s="2"/>
       <c r="L1070" s="2"/>
       <c r="Q1070" s="3"/>
       <c r="S1070" s="3"/>
     </row>
-    <row r="1071" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q1071" s="4"/>
       <c r="S1071" s="4"/>
     </row>
-    <row r="1072" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1072" s="2"/>
       <c r="L1072" s="2"/>
       <c r="Q1072" s="3"/>
       <c r="S1072" s="3"/>
     </row>
-    <row r="1073" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q1073" s="3"/>
       <c r="S1073" s="3"/>
     </row>
-    <row r="1075" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1075" s="1"/>
       <c r="B1075" s="1"/>
     </row>
-    <row r="1077" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1077" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1077" s="2"/>
     </row>
-    <row r="1082" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1082" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1082" s="1"/>
     </row>
-    <row r="1084" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1084" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1084" s="2"/>
       <c r="L1084" s="2"/>
     </row>
-    <row r="1087" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1087" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1087" s="1"/>
       <c r="B1087" s="1"/>
     </row>
-    <row r="1089" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1089" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1089" s="2"/>
     </row>
-    <row r="1094" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1094" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1094" s="1"/>
     </row>
-    <row r="1097" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1097" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1097" s="2"/>
       <c r="M1097" s="2"/>
     </row>
-    <row r="1102" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1102" s="1"/>
       <c r="B1102" s="1"/>
     </row>
-    <row r="1104" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1104" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1104" s="2"/>
     </row>
-    <row r="1109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1109" s="1"/>
     </row>
-    <row r="1111" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1111" s="2"/>
       <c r="K1111" s="2"/>
     </row>
-    <row r="1112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1112" s="2"/>
     </row>
-    <row r="1113" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1113" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1113" s="2"/>
     </row>
-    <row r="1114" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1114" s="2"/>
     </row>
-    <row r="1115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1115" s="2"/>
     </row>
-    <row r="1118" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1118" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1118" s="2"/>
     </row>
-    <row r="1120" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1120" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1120" s="1"/>
       <c r="B1120" s="1"/>
     </row>
-    <row r="1122" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1122" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1122" s="2"/>
     </row>
-    <row r="1127" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1127" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1127" s="1"/>
     </row>
-    <row r="1129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1129" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1129" s="2"/>
       <c r="K1129" s="2"/>
     </row>
-    <row r="1136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1136" s="1"/>
       <c r="B1136" s="1"/>
     </row>
-    <row r="1138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1138" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1138" s="2"/>
     </row>
-    <row r="1143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1143" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1143" s="1"/>
     </row>
-    <row r="1145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1145" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1145" s="2"/>
       <c r="K1145" s="2"/>
     </row>
-    <row r="1152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1152" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1152" s="1"/>
       <c r="B1152" s="1"/>
     </row>
-    <row r="1154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1154" s="2"/>
     </row>
-    <row r="1159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1159" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1159" s="1"/>
     </row>
-    <row r="1161" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1161" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1161" s="2"/>
       <c r="K1161" s="2"/>
     </row>
-    <row r="1165" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1165" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1165" s="1"/>
       <c r="B1165" s="1"/>
     </row>
-    <row r="1167" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1167" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1167" s="2"/>
     </row>
-    <row r="1172" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1172" s="1"/>
     </row>
-    <row r="1174" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1174" s="2"/>
     </row>
-    <row r="1183" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1183" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1183" s="1"/>
       <c r="B1183" s="1"/>
     </row>
-    <row r="1190" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1190" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1190" s="1"/>
     </row>
-    <row r="1196" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1196" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1196" s="1"/>
       <c r="B1196" s="1"/>
     </row>
-    <row r="1203" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1203" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1203" s="1"/>
     </row>
-    <row r="1210" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1210" s="1"/>
       <c r="B1210" s="1"/>
     </row>
-    <row r="1212" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1212" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1212" s="2"/>
     </row>
-    <row r="1217" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1217" s="1"/>
     </row>
-    <row r="1219" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1219" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1219" s="2"/>
       <c r="K1219" s="2"/>
     </row>
-    <row r="1225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1225" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1225" s="1"/>
       <c r="B1225" s="1"/>
     </row>
-    <row r="1232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1232" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1232" s="1"/>
     </row>
   </sheetData>
